--- a/result.xlsx
+++ b/result.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,13 +461,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="57" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="39" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="86" customWidth="1" min="8" max="8"/>
+    <col width="28" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,26 +485,21 @@
           <t>Phiên bản:</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>/home/dxhoang/Desktop/compare_folders/Foldertest1</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Số files: 9 - Dung lượng: 0.9036MB</t>
+          <t>Số files: 1 - Dung lượng: 0.0MB</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>/home/dxhoang/Desktop/compare_folders/Foldertest2</t>
+          <t>10.1.36.8/shared/LAB_TO_LOCAL/DXHoang</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Số files: 9 - Dung lượng: 15.7615MB</t>
+          <t>Số files: 1 - Dung lượng: 0.0148MB</t>
         </is>
       </c>
     </row>
@@ -545,6 +542,16 @@
       <c r="H4" s="3" t="inlineStr">
         <is>
           <t>Ghi chú</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>File extension</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Header file</t>
         </is>
       </c>
     </row>
@@ -554,293 +561,62 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>/WinSSHTerm-2.29.1-x64.msi</t>
+          <t>ctfd\temp</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>Sửa</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>876</v>
-      </c>
+          <t>Thêm mới</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n">
-        <v>1552.26</v>
+        <v>15.2</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>692486</v>
+        <v>15569</v>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>Thay đổi thông tin</t>
+          <t>Tạo mới</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>File sau khi chỉnh sửa có kích thước lớn hơn nhiều so với file cũ: 676.26 (KB)</t>
+          <t>File có định dạng lạ</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>ASCII text</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>/test.txt</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Sửa</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>6483.27</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>6637651</v>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>Thay đổi thông tin</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>File sau khi chỉnh sửa có kích thước lớn hơn nhiều so với file cũ: 6482.08 (KB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>/subdir1/dependency-check-report.xml</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Thêm mới</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n">
-        <v>1592.5</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>1630757</v>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Tạo mới</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>File có kích thước lớn: 1592.54 (KB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>/subdir1/pentest taskgov</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sửa</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-535</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Thay đổi thông tin</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>/subdir1/charts-main.zip</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Thêm mới</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n">
-        <v>6483.3</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>6638868</v>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>Tạo mới</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>File có kích thước lớn: 6483.27 (KB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>/subdir1/request.txt</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sửa</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Thay đổi thông tin</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>/subdir1/subdir2/máy chủ mạng thin</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Thêm mới</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Xóa</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
-        <v>46</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Tạo mới</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>/personal access token</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Xóa</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-94</v>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Không còn sử dụng</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>/subdir1/subdir2/a.py</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Xóa</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-291</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Không còn sử dụng</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>/subdir1/subdir2/subdir3/login.html</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Xóa</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-19284</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Không còn sử dụng</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/result.xlsx
+++ b/result.xlsx
@@ -80,13 +80,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +461,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="57" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="39" customWidth="1" min="6" max="6"/>
+    <col width="43" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="28" customWidth="1" min="8" max="8"/>
+    <col width="138" customWidth="1" min="8" max="8"/>
     <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="50" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,21 +485,26 @@
           <t>Phiên bản:</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10.1.36.8/shared/LAB_TO_LOCAL/DXHoang/Foldertest1</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Số files: 1 - Dung lượng: 0.0MB</t>
+          <t>Số files: 11 - Dung lượng: 0.9287MB</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.1.36.8/shared/LAB_TO_LOCAL/DXHoang</t>
+          <t>10.1.36.8/shared/LAB_TO_LOCAL/DXHoang/Foldertest2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Số files: 1 - Dung lượng: 0.0148MB</t>
+          <t>Số files: 11 - Dung lượng: 15.7876MB</t>
         </is>
       </c>
     </row>
@@ -559,64 +564,516 @@
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>ctfd\temp</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Success Criteria.ods</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sửa</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1047</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Thay đổi thông tin</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>.ods</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>OpenDocument Spreadsheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>test.txt</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Sửa</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6483.27</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>6637651</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>Thay đổi thông tin</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>File có định dạng lạ + File sau khi chỉnh sửa có kích thước lớn hơn nhiều so với file cũ: 6482.08 (KB)</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>Zip archive data, at least v1.0 to extract</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>WinSSHTerm-2.29.1-x64.msi.xml</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Sửa</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>876</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1552.26</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>692486</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>Thay đổi thông tin</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>File không đúng định dạng (so sánh với đuôi file) + File sau khi chỉnh sửa có kích thước lớn hơn nhiều so với file cũ: 676.26 (KB)</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>.xml</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>MS-DOS executable</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>subdir1\charts-main.zip</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Thêm mới</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>15569</v>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n">
+        <v>6483.3</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>6638868</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>Tạo mới</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>File có định dạng lạ + File có kích thước lớn: 6483.27 (KB)</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>.zip</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>Zip archive data, at least v1.0 to extract</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>subdir1\CRM_Contact_09.01.2023_15.55.40_902.xlsx</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Thêm mới</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7913</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tạo mới</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>.xlsx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Microsoft Excel 2007+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>subdir1\dependency-check-report.xml</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>Thêm mới</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n">
+        <v>1592.5</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1630757</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>Tạo mới</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> + File có kích thước lớn: 1592.54 (KB)</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>.xml</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>XML 1.0 document, ASCII text</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>subdir1\pentest taskgov</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>Sửa</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-535</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>Thay đổi thông tin</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>File có định dạng lạ</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>subdir1\request.txt</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>Sửa</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>Thay đổi thông tin</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>File có định dạng lạ</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="J12" s="6" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>subdir1\subdir2\máy chủ mạng thin</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>Thêm mới</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>Tạo mới</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>File có định dạng lạ</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="inlineStr"/>
+      <c r="J13" s="6" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>\personal access token</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Xóa</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-94</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Không còn sử dụng</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>\subdir1\CRM_Contact_09.01.2023_15.57.42_823.xlsx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Xóa</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-7916</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Không còn sử dụng</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>.xlsx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Microsoft Excel 2007+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>\subdir1\subdir2\a.py</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Xóa</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-291</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Không còn sử dụng</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>.py</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>\subdir1\subdir2\subdir3\login.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Xóa</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-19284</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Không còn sử dụng</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>.html</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>ASCII text</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Xóa</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Không còn sử dụng</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
